--- a/data/basic_properties_data_coded.xlsx
+++ b/data/basic_properties_data_coded.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofsussex-my.sharepoint.com/personal/acp29_sussex_ac_uk/Documents/Research/APOE/OGS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58C0301F-85A5-3E40-A2E2-31BF0820D88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{554EF631-606D-E44F-8C71-430E587DE30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="-19580" windowWidth="27640" windowHeight="16160" xr2:uid="{A56CE306-5EFA-3C4B-B0BE-1572C5810D07}"/>
+    <workbookView xWindow="1220" yWindow="-18820" windowWidth="27640" windowHeight="16160" xr2:uid="{A56CE306-5EFA-3C4B-B0BE-1572C5810D07}"/>
   </bookViews>
   <sheets>
-    <sheet name="basic_properties_data" sheetId="1" r:id="rId1"/>
+    <sheet name="OGS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2925D4AD-95ED-4A4C-8756-79AB719E1ED7}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
